--- a/data/xlsx/正确率-阅读.xlsx
+++ b/data/xlsx/正确率-阅读.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2434344334 1255333543 5454543555 4333553545 4343545543 5544455345 5444432534 5</t>
+          <t>2434344334 1255333543 5454543555 4333553545 4343545543 5544455345 5444432534 5553555455</t>
         </is>
       </c>
     </row>

--- a/data/xlsx/正确率-阅读.xlsx
+++ b/data/xlsx/正确率-阅读.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2434344334 1255333543 5454543555 4333553545 4343545543 5544455345 5444432534 5553555455</t>
+          <t>2434344334 1255333543 5454543555 4333553545 4343545543 5544455345 5444432534 5553555455 5444425424 4455545344</t>
         </is>
       </c>
     </row>
